--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,411 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Thai League 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Chiangrai Utd</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="X2" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Thai League 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sukhothai</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Buriram Utd</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X3" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Thai League 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BG Pathumthani United</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dragon Pathumwan Kanchana</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K4" t="n">
+        <v>950</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -670,10 +670,10 @@
         <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
         <v>8.199999999999999</v>
@@ -688,10 +688,10 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -703,25 +703,25 @@
         <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
         <v>5.8</v>
@@ -835,22 +835,22 @@
         <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W3" t="n">
         <v>1.09</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -949,100 +949,100 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>1.39</v>
       </c>
       <c r="I3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="J3" t="n">
         <v>4.9</v>
@@ -820,13 +820,13 @@
         <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.36</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -838,58 +838,58 @@
         <v>1.59</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>1.09</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
         <v>15</v>
       </c>
-      <c r="Z3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE3" t="n">
         <v>18</v>
       </c>
-      <c r="AB3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
         <v>1.21</v>
@@ -976,7 +976,7 @@
         <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -679,7 +679,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>5.7</v>
@@ -718,7 +718,7 @@
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>1.39</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J3" t="n">
         <v>4.9</v>
@@ -835,7 +835,7 @@
         <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
         <v>1.54</v>
@@ -850,7 +850,7 @@
         <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W3" t="n">
         <v>1.09</v>
@@ -949,7 +949,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -718,7 +718,7 @@
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
         <v>5.8</v>
@@ -835,7 +835,7 @@
         <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
         <v>1.54</v>
@@ -844,10 +844,10 @@
         <v>2.48</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
         <v>3.05</v>
@@ -880,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
         <v>40</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -685,7 +685,7 @@
         <v>5.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -700,7 +700,7 @@
         <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -844,10 +844,10 @@
         <v>2.48</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
         <v>3.05</v>
@@ -862,7 +862,7 @@
         <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -679,7 +679,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>5.7</v>
@@ -688,22 +688,22 @@
         <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
         <v>2.86</v>
@@ -814,13 +814,13 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
         <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -844,10 +844,10 @@
         <v>2.48</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
         <v>3.05</v>
@@ -859,7 +859,7 @@
         <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
         <v>11.5</v>
@@ -883,7 +883,7 @@
         <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -670,13 +670,13 @@
         <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -700,7 +700,7 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
         <v>1.43</v>
@@ -712,13 +712,13 @@
         <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,22 +805,22 @@
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="H3" t="n">
         <v>1.39</v>
       </c>
       <c r="I3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -844,52 +844,52 @@
         <v>2.48</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
         <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="4">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -679,7 +679,7 @@
         <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>5.7</v>
@@ -721,7 +721,7 @@
         <v>2.58</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="I3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -835,7 +835,7 @@
         <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
         <v>1.54</v>
@@ -862,7 +862,7 @@
         <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -871,19 +871,19 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -673,13 +673,13 @@
         <v>1.63</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
         <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>5.7</v>
@@ -691,13 +691,13 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
@@ -706,7 +706,7 @@
         <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
         <v>1.84</v>
@@ -721,7 +721,7 @@
         <v>2.58</v>
       </c>
       <c r="X2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>1.38</v>
       </c>
       <c r="I3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -832,25 +832,25 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" t="n">
         <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
         <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W3" t="n">
         <v>1.11</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -970,13 +970,13 @@
         <v>1.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -670,7 +670,7 @@
         <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
         <v>6.2</v>
@@ -679,7 +679,7 @@
         <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>5.7</v>
@@ -697,19 +697,19 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
         <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
         <v>1.96</v>
@@ -718,7 +718,7 @@
         <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G3" t="n">
         <v>9.800000000000001</v>
@@ -811,7 +811,7 @@
         <v>1.38</v>
       </c>
       <c r="I3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -823,7 +823,7 @@
         <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>4.9</v>
@@ -832,13 +832,13 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
         <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -847,10 +847,10 @@
         <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="W3" t="n">
         <v>1.11</v>
@@ -868,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -949,7 +949,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -964,7 +964,7 @@
         <v>1.34</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
         <v>1.34</v>
@@ -976,7 +976,7 @@
         <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -988,7 +988,7 @@
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -670,16 +670,16 @@
         <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>5.7</v>
@@ -697,10 +697,10 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.43</v>
@@ -715,10 +715,10 @@
         <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -835,7 +835,7 @@
         <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
         <v>1.54</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -691,34 +691,34 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,52 +805,52 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>1.38</v>
       </c>
       <c r="I3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
         <v>1.97</v>
       </c>
       <c r="V3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W3" t="n">
         <v>1.11</v>
@@ -868,13 +868,13 @@
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -940,10 +940,10 @@
         <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
@@ -976,72 +976,342 @@
         <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>1.19</v>
+        <v>1.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Saudi 1st Division</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>09:10:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Al-Anwar Club</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Al Batin</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K5" t="n">
+        <v>950</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.01</v>
       </c>
-      <c r="W4" t="n">
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
         <v>1.16</v>
       </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Saudi 1st Division</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>09:20:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Al Bukayriyah</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Al-Arabi Al-Saudi</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -670,7 +670,7 @@
         <v>1.56</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>5.6</v>
@@ -682,7 +682,7 @@
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -718,7 +718,7 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -811,7 +811,7 @@
         <v>1.38</v>
       </c>
       <c r="I3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J3" t="n">
         <v>5.1</v>
@@ -838,13 +838,13 @@
         <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
         <v>1.97</v>
@@ -940,16 +940,16 @@
         <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -979,7 +979,7 @@
         <v>1.66</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.16</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.15</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S5" t="n">
-        <v>1.02</v>
+        <v>1.88</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.54</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>2.04</v>
+        <v>3.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -691,34 +691,34 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>5.1</v>
@@ -832,61 +832,61 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -988,7 +988,7 @@
         <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G5" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
@@ -1090,7 +1090,7 @@
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1105,13 +1105,13 @@
         <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
         <v>1.09</v>
       </c>
       <c r="S5" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
@@ -1231,37 +1231,37 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>1.57</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,10 +1285,10 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G2" t="n">
         <v>1.68</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -691,28 +691,28 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>1.39</v>
       </c>
       <c r="I3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>5.1</v>
@@ -832,64 +832,64 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" t="n">
         <v>1.59</v>
       </c>
       <c r="R3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W3" t="n">
         <v>1.12</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -988,7 +988,7 @@
         <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1096,7 +1096,7 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.7</v>
+        <v>2.66</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
@@ -1108,16 +1108,16 @@
         <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.94</v>
+        <v>2.68</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.27</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
@@ -1228,43 +1228,43 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.57</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,22 +1273,22 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
         <v>1.68</v>
@@ -682,7 +682,7 @@
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -700,7 +700,7 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
         <v>1.41</v>
@@ -808,7 +808,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="I3" t="n">
         <v>1.46</v>
@@ -835,7 +835,7 @@
         <v>2.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
         <v>1.56</v>
@@ -889,7 +889,7 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>26</v>
+        <v>1.71</v>
       </c>
       <c r="H4" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -970,7 +970,7 @@
         <v>1.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.2</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
         <v>1.21</v>
@@ -985,7 +985,7 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
         <v>1.04</v>
@@ -1078,16 +1078,16 @@
         <v>2.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1120,10 +1120,10 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="H6" t="n">
         <v>5.1</v>
@@ -1219,16 +1219,16 @@
         <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
         <v>2.98</v>
@@ -1237,7 +1237,7 @@
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
         <v>2.18</v>
@@ -1249,25 +1249,25 @@
         <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
         <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -670,7 +670,7 @@
         <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
@@ -718,7 +718,7 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>7.8</v>
       </c>
       <c r="G3" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>1.41</v>
@@ -814,7 +814,7 @@
         <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
@@ -826,7 +826,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -853,7 +853,7 @@
         <v>3.15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G4" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="n">
         <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="K4" t="n">
         <v>32</v>
@@ -958,7 +958,7 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>1.34</v>
@@ -976,10 +976,10 @@
         <v>1.21</v>
       </c>
       <c r="S4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
@@ -988,7 +988,7 @@
         <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.15</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>2.68</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
         <v>5.1</v>
@@ -1222,10 +1222,10 @@
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1258,7 +1258,7 @@
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1267,7 +1267,7 @@
         <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -670,16 +670,16 @@
         <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -694,22 +694,22 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
         <v>1.94</v>
@@ -718,13 +718,13 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,22 +733,22 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,52 +802,52 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G3" t="n">
         <v>7.8</v>
       </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
       <c r="H3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I3" t="n">
         <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>2.46</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>3.15</v>
@@ -865,7 +865,7 @@
         <v>11.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB3" t="n">
         <v>38</v>
@@ -874,7 +874,7 @@
         <v>15.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -883,13 +883,13 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -940,43 +940,43 @@
         <v>1.28</v>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>1.2</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4" t="n">
-        <v>1.4</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
         <v>32</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.66</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.67</v>
       </c>
       <c r="T4" t="n">
         <v>1.94</v>
@@ -988,7 +988,7 @@
         <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
         <v>2.4</v>
@@ -1084,7 +1084,7 @@
         <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1105,10 +1105,10 @@
         <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
         <v>3.45</v>
@@ -1120,10 +1120,10 @@
         <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
         <v>14.5</v>
@@ -1135,7 +1135,7 @@
         <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB5" t="n">
         <v>11</v>
@@ -1147,13 +1147,13 @@
         <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1177,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>5.1</v>
@@ -1222,7 +1222,7 @@
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>1.46</v>
@@ -1231,16 +1231,16 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1249,7 +1249,7 @@
         <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U6" t="n">
         <v>1.8</v>
@@ -1258,7 +1258,7 @@
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
         <v>13.5</v>
@@ -1267,7 +1267,7 @@
         <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1291,19 +1291,19 @@
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.29</v>
@@ -691,16 +691,16 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
@@ -709,22 +709,22 @@
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -736,16 +736,16 @@
         <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>40</v>
@@ -760,7 +760,7 @@
         <v>180</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,22 +805,22 @@
         <v>7.6</v>
       </c>
       <c r="G3" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I3" t="n">
         <v>1.46</v>
       </c>
       <c r="J3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -844,10 +844,10 @@
         <v>2.46</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V3" t="n">
         <v>3.15</v>
@@ -865,10 +865,10 @@
         <v>11.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AC3" t="n">
         <v>15.5</v>
@@ -883,13 +883,13 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
         <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -973,7 +973,7 @@
         <v>1.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
         <v>1.66</v>
@@ -982,13 +982,13 @@
         <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
         <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>3.45</v>
@@ -1087,19 +1087,19 @@
         <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
         <v>1.73</v>
@@ -1108,13 +1108,13 @@
         <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
         <v>1.97</v>
@@ -1129,28 +1129,28 @@
         <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
         <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
@@ -1159,7 +1159,7 @@
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ5" t="n">
         <v>38</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,85 +1210,85 @@
         <v>1.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>60</v>
@@ -1300,16 +1300,16 @@
         <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AL6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H2" t="n">
         <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.26</v>
@@ -700,31 +700,31 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X2" t="n">
         <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,28 +748,28 @@
         <v>19</v>
       </c>
       <c r="AG2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>40</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>180</v>
       </c>
       <c r="AK2" t="n">
         <v>50</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J3" t="n">
         <v>5.2</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -832,19 +832,19 @@
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
         <v>2.04</v>
@@ -856,7 +856,7 @@
         <v>1.14</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="n">
         <v>12.5</v>
@@ -868,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AC3" t="n">
         <v>15.5</v>
@@ -886,10 +886,10 @@
         <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="G4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.53</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>26</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.66</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
         <v>1.94</v>
@@ -985,10 +985,10 @@
         <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1006,7 +1006,7 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1027,7 +1027,7 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>190</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
         <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
         <v>4.1</v>
@@ -1090,31 +1090,31 @@
         <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
         <v>1.97</v>
@@ -1123,49 +1123,49 @@
         <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="n">
         <v>95</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE5" t="n">
         <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>190</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
@@ -1177,7 +1177,7 @@
         <v>26</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,19 +1273,19 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
         <v>9</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
@@ -694,31 +694,31 @@
         <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X2" t="n">
         <v>32</v>
@@ -736,10 +736,10 @@
         <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>40</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
         <v>160</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I3" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.3</v>
@@ -826,37 +826,37 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="W3" t="n">
         <v>1.14</v>
       </c>
       <c r="X3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
         <v>12.5</v>
@@ -865,7 +865,7 @@
         <v>11.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB3" t="n">
         <v>85</v>
@@ -883,13 +883,13 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="J4" t="n">
         <v>4.6</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
@@ -967,10 +967,10 @@
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R4" t="n">
         <v>1.53</v>
@@ -985,10 +985,10 @@
         <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.28</v>
       </c>
-      <c r="S5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="X5" t="n">
         <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>18.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,52 +1207,52 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
@@ -1261,10 +1261,10 @@
         <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,22 +1273,22 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
         <v>60</v>
@@ -1303,7 +1303,7 @@
         <v>65</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
@@ -709,22 +709,22 @@
         <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,34 +733,34 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>9.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL2" t="n">
         <v>160</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I3" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="J3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>5.4</v>
@@ -835,43 +835,43 @@
         <v>2.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
         <v>1.59</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="Y3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC3" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15.5</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -883,22 +883,22 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="n">
         <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="4">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G4" t="n">
         <v>1.49</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
         <v>1.94</v>
@@ -988,7 +988,7 @@
         <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1105,7 +1105,7 @@
         <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
         <v>1.29</v>
@@ -1123,7 +1123,7 @@
         <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X5" t="n">
         <v>12.5</v>
@@ -1132,7 +1132,7 @@
         <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1147,7 +1147,7 @@
         <v>18.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
@@ -1162,13 +1162,13 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1207,67 +1207,67 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
         <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1288,28 +1288,28 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>40</v>
       </c>
-      <c r="AH6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>60</v>
-      </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="X2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH2" t="n">
         <v>23</v>
       </c>
-      <c r="Y2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="G3" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="I3" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.29</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="V3" t="n">
-        <v>2.96</v>
+        <v>2.62</v>
       </c>
       <c r="W3" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
-        <v>990</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC3" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK3" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="H4" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="T4" t="n">
         <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2.16</v>
       </c>
-      <c r="H5" t="n">
+      <c r="R5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.95</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.85</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
         <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>1.8</v>
@@ -1243,25 +1243,25 @@
         <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>30</v>
@@ -1288,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
         <v>44</v>
@@ -1303,13 +1303,13 @@
         <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" t="n">
         <v>6.6</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S2" t="n">
         <v>4.8</v>
       </c>
-      <c r="K2" t="n">
+      <c r="T2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>5.2</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.5</v>
+        <v>4.8</v>
       </c>
       <c r="AG2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>9.6</v>
       </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>14</v>
-      </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1.61</v>
+        <v>2.92</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>2.22</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>2.28</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.29</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.6</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>2.52</v>
+        <v>60</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>1.42</v>
       </c>
       <c r="V3" t="n">
-        <v>2.62</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>2.98</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="n">
-        <v>14.5</v>
+        <v>280</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.4</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="G4" t="n">
-        <v>1.47</v>
+        <v>410</v>
       </c>
       <c r="H4" t="n">
-        <v>7.2</v>
+        <v>1.05</v>
       </c>
       <c r="I4" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9</v>
+        <v>48</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>2.44</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>2.58</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
         <v>1000</v>
@@ -1003,34 +1003,34 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>3.5</v>
       </c>
       <c r="L5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.47</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.41</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
         <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="n">
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -1207,67 +1207,67 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.55</v>
       </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
         <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1276,31 +1276,31 @@
         <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
         <v>80</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>2.28</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,22 +745,22 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,549 +769,9 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Thai League 1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-24</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sukhothai</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Buriram Utd</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S3" t="n">
-        <v>60</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>240</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>350</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Thai League 1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-24</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>09:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BG Pathumthani United</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Dragon Pathumwan Kanchana</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="G4" t="n">
-        <v>410</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>980</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>48</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X4" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Saudi 1st Division</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-24</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>09:10:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Al-Anwar Club</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Al Batin</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Saudi 1st Division</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-24</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>09:20:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Al Bukayriyah</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Al-Arabi Al-Saudi</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO6" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,141 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Saudi 1st Division</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-24</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>09:20:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Al Bukayriyah</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Al-Arabi Al-Saudi</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
